--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CompetencemetierVs</t>
+    <t>CompetencemetiereVs</t>
   </si>
   <si>
     <t>Title</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,10 +103,10 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R394-competence-metier</t>
-  </si>
-  <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R01-EnsembleSavoirFaire-CISIS</t>
+  </si>
+  <si>
+    <t>https://smt.esante.gouv.fr/fhir/CodeSystem/tre-r394-competence-metier</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -103,7 +103,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R01-EnsembleSavoirFaire-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R01-EnsembleSavoirFaire-CISIS/FHIR/TRE-R01-EnsembleSavoirFaire-CISIS</t>
   </si>
   <si>
     <t>https://smt.esante.gouv.fr/fhir/CodeSystem/tre-r394-competence-metier</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
+++ b/poc-professionnel/ig/ValueSet-competenceMetier-vs.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/competenceMetier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/competenceMetier-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
